--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_07-26-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_RF_Board_BOM_V012.6_07-26-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD74D3-8D46-4D16-BA76-F7EF41CD43F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F98AE-A262-4E25-B3D9-FCF5339974C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="RX Gain Control" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall RF Board'!$A$1:$H$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Overall RF Board'!$A$1:$H$60</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="354">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -1113,6 +1113,15 @@
   <si>
     <t>NOTE:  R73 is stacked on top of C73</t>
   </si>
+  <si>
+    <t>490-HSE-B20250-040H</t>
+  </si>
+  <si>
+    <t>Heatsink for U14</t>
+  </si>
+  <si>
+    <t>For U14</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1187,6 +1196,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1229,7 +1250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1276,6 +1297,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1613,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1657,12 +1680,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="4">
-        <f>'Base RF Board'!A54</f>
-        <v>191</v>
+        <f>'Base RF Board'!A55</f>
+        <v>192</v>
       </c>
       <c r="E5" s="5">
-        <f>'Base RF Board'!H54</f>
-        <v>58.589000000000013</v>
+        <f>'Base RF Board'!H55</f>
+        <v>59.289000000000016</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1746,11 +1769,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" s="6">
         <f>SUM(D5:D10)</f>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11" s="7">
         <f>SUM(E5:E10)</f>
-        <v>109.739</v>
+        <v>110.43900000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1780,10 +1803,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2900,7 +2923,7 @@
         <v>0.1</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H58" si="1">G35*A35</f>
+        <f t="shared" ref="H35:H59" si="1">G35*A35</f>
         <v>0.1</v>
       </c>
       <c r="I35" t="s">
@@ -3621,42 +3644,63 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
+    <row r="58" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="14">
         <v>4</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>305</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>307</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>0.02</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H59" s="15">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
-        <f>SUM(A2:A58)</f>
-        <v>225</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <f>SUM(A2:A59)</f>
+        <v>226</v>
+      </c>
+      <c r="D60" t="s">
         <v>82</v>
       </c>
-      <c r="H59" s="16">
-        <f>SUM(H2:H58)</f>
-        <v>109.383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="21" t="s">
+      <c r="H60" s="16">
+        <f>SUM(H2:H59)</f>
+        <v>110.083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B62" s="21" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3668,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4421,7 +4465,7 @@
         <v>0.1</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H53" si="2">G35*A35</f>
+        <f t="shared" ref="H35:H54" si="2">G35*A35</f>
         <v>0.1</v>
       </c>
     </row>
@@ -4791,40 +4835,61 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="14">
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
         <v>4</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>305</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>307</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>0.02</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H54" s="15">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
-        <f>SUM(A2:A53)</f>
-        <v>191</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="16">
-        <f>SUM(H2:H53)</f>
-        <v>58.589000000000013</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <f>SUM(A2:A54)</f>
+        <v>192</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="16">
+        <f>SUM(H2:H54)</f>
+        <v>59.289000000000016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="21" t="s">
         <v>350</v>
       </c>
     </row>
